--- a/TaskEstimations.xlsx
+++ b/TaskEstimations.xlsx
@@ -5,23 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f58ad5ea13b11de/Documents/GitHub/logbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D7BCD2-5180-459C-BACB-4F2166AFBEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{B3D7BCD2-5180-459C-BACB-4F2166AFBEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E47270-57D0-417E-9511-EBC7EE2B267A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22110" yWindow="2865" windowWidth="13140" windowHeight="17205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mower Project" sheetId="1" r:id="rId1"/>
     <sheet name="Archived Mower Project" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>List</t>
   </si>
@@ -89,15 +101,9 @@
     <t>Complete system test</t>
   </si>
   <si>
-    <t>Difficulty: 8</t>
-  </si>
-  <si>
     <t>Mower: Software Design Description</t>
   </si>
   <si>
-    <t>Difficulty: 2</t>
-  </si>
-  <si>
     <t>Document code in Pi</t>
   </si>
   <si>
@@ -113,12 +119,6 @@
     <t>Implement all API-requests and posts</t>
   </si>
   <si>
-    <t>Difficulty: 3</t>
-  </si>
-  <si>
-    <t>Change DB structure for mower - isOn</t>
-  </si>
-  <si>
     <t>Store position data from Mower</t>
   </si>
   <si>
@@ -170,18 +170,6 @@
     <t>Line follower data</t>
   </si>
   <si>
-    <t>Difficulty: 5</t>
-  </si>
-  <si>
-    <t>Difficulty: 13</t>
-  </si>
-  <si>
-    <t>Difficulty: 1</t>
-  </si>
-  <si>
-    <t>Difficulty: 7</t>
-  </si>
-  <si>
     <t>Fetch and set status to manual driving</t>
   </si>
   <si>
@@ -227,7 +215,16 @@
     <t>ApiStructure</t>
   </si>
   <si>
-    <t>Difficulty: 15</t>
+    <t>Early Difficulty</t>
+  </si>
+  <si>
+    <t>Change DB structure for mower - is On</t>
+  </si>
+  <si>
+    <t>Corrected Points</t>
+  </si>
+  <si>
+    <t>Sum:</t>
   </si>
 </sst>
 </file>
@@ -607,494 +604,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="68.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C29" s="1">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C37" s="1">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
         <v>49</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="1">
+        <f>SUM(C2:C43)</f>
+        <v>200</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44">
+        <f>SUM(E2:E43)</f>
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
-    <sortCondition ref="C1:C43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
+    <sortCondition ref="F1:F43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1106,9 +1252,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +1302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>

--- a/TaskEstimations.xlsx
+++ b/TaskEstimations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f58ad5ea13b11de/Documents/GitHub/logbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{B3D7BCD2-5180-459C-BACB-4F2166AFBEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E47270-57D0-417E-9511-EBC7EE2B267A}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{B3D7BCD2-5180-459C-BACB-4F2166AFBEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F5B1CD6-A3F5-4326-BB15-362653471A9B}"/>
   <bookViews>
-    <workbookView xWindow="22110" yWindow="2865" windowWidth="13140" windowHeight="17205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6510" yWindow="2070" windowWidth="13140" windowHeight="17205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mower Project" sheetId="1" r:id="rId1"/>
@@ -221,10 +221,10 @@
     <t>Change DB structure for mower - is On</t>
   </si>
   <si>
-    <t>Corrected Points</t>
-  </si>
-  <si>
     <t>Sum:</t>
+  </si>
+  <si>
+    <t>Corrected Difficulty</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -1224,14 +1224,14 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1">
         <f>SUM(C2:C43)</f>
         <v>200</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <f>SUM(E2:E43)</f>
